--- a/code/fungus_data_2.xlsx
+++ b/code/fungus_data_2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15156\Desktop\MCM\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FD51D2-6E66-4389-938C-4299928F2767}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F1F6AA-E725-4F0E-A44D-A5CB59A95D52}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -2046,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAD1EB4-92C5-4AE9-AD8B-82AD90D32C25}">
   <dimension ref="A1:K300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
@@ -12975,4 +12976,88 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4867DB4C-57DB-41CC-A7B0-33B71993018C}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>148.96029999999999</v>
+      </c>
+      <c r="C2">
+        <v>5.5974000000000004</v>
+      </c>
+      <c r="D2">
+        <v>44.8215</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>154.3948</v>
+      </c>
+      <c r="C3">
+        <v>6.9470999999999998</v>
+      </c>
+      <c r="D3">
+        <v>37.383200000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>65.222800000000007</v>
+      </c>
+      <c r="D4">
+        <v>434.34800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>29.7378</v>
+      </c>
+      <c r="D5">
+        <v>210.06479999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>